--- a/Streamlit_App/data/Metrics/Regression_Models_CD_Training_Metrics.xlsx
+++ b/Streamlit_App/data/Metrics/Regression_Models_CD_Training_Metrics.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jogeo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jogeo\Desktop\Project\Blood-Brain-Barrier-Drug-Prediction\Streamlit_App\data\Metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9347947-479F-4AD1-A155-008C6228F23A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4288D72C-3195-419C-8CCE-06A0D2D58398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{908DC6BD-D1FE-487A-B625-48FE7CD3FA32}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>Regression Models – Chemical Descriptors</t>
   </si>
@@ -60,25 +60,25 @@
     <t>Dummy Regressor</t>
   </si>
   <si>
+    <t>Linear Regression</t>
+  </si>
+  <si>
+    <t>Support Vector Regression</t>
+  </si>
+  <si>
+    <t>K-Nearest Neighbour Regressor</t>
+  </si>
+  <si>
+    <t>Random Forest Regressor</t>
+  </si>
+  <si>
+    <t>Decision Tree Regressor</t>
+  </si>
+  <si>
+    <t>Stochastic Gradient Descent Regressor</t>
+  </si>
+  <si>
     <t>NA</t>
-  </si>
-  <si>
-    <t>Linear Regression</t>
-  </si>
-  <si>
-    <t>Support Vector Regression</t>
-  </si>
-  <si>
-    <t>K-Nearest Neighbour Regressor</t>
-  </si>
-  <si>
-    <t>Random Forest Regressor</t>
-  </si>
-  <si>
-    <t>Decision Tree Regressor</t>
-  </si>
-  <si>
-    <t>Stochastic Gradient Descent Regressor</t>
   </si>
 </sst>
 </file>
@@ -86,7 +86,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0000000000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -139,20 +139,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -471,138 +474,150 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>-0.62085023504635695</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>0</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>-0.50098642309722496</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>0.19939900753380299</v>
       </c>
       <c r="E4" s="5">
         <v>9.9009900990098994E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="5">
+    <row r="5" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4">
         <v>-0.46663119180065998</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>0.26939204165821501</v>
       </c>
       <c r="E5" s="5">
         <v>9.9009900990098994E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="5">
+    <row r="6" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4">
         <v>-0.50633411595638</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>0.227194343699572</v>
       </c>
       <c r="E6" s="5">
         <v>9.9009900990098994E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="5">
+    <row r="7" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4">
         <v>-0.49887430664758098</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>0.12504893944994599</v>
       </c>
       <c r="E7" s="5">
         <v>9.9009900990098994E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="2" t="s">
+    <row r="8" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4">
+        <v>-0.62121875299999996</v>
+      </c>
+      <c r="D8" s="4">
+        <v>-1.25635869198143</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.16831699999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="5">
-        <v>-0.62121875299999996</v>
-      </c>
-      <c r="D8" s="5">
-        <v>-1.25635869198143</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0.16831683168316799</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>-0.49768864453836198</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>0.26195709902844699</v>
       </c>
       <c r="E9" s="5">
@@ -610,9 +625,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
